--- a/Tables/Table1_Performance_on_UKBB.xlsx
+++ b/Tables/Table1_Performance_on_UKBB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9588EF9F-5C4F-476C-9EB5-041F05DF7EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E928D234-FFE8-4436-8F58-1CC2456AAA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UKBB_Whole_Height" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Software</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -516,13 +516,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF39C987-7B64-4D8E-ADF7-1A2B5E4583C8}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -539,23 +543,13 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.38480324074074074</v>
-      </c>
-      <c r="C2">
-        <v>41.79</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1">
-        <v>1.6782407407407406E-3</v>
-      </c>
-      <c r="C3">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -566,30 +560,20 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.22090277777777778</v>
-      </c>
-      <c r="C5">
-        <v>36.119999999999997</v>
-      </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
-        <v>8.7199074074074068E-2</v>
-      </c>
-      <c r="C6">
-        <v>0.42414099999999999</v>
-      </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1">
-        <v>0.97010416666666666</v>
+        <v>9.4178240740740729E-2</v>
       </c>
       <c r="C7">
         <v>6.21</v>
@@ -600,13 +584,28 @@
         <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>4.155092592592593E-3</v>
+        <v>0.24305555555555555</v>
       </c>
       <c r="C8">
-        <v>2.5499999999999998</v>
-      </c>
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:C13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/Table1_Performance_on_UKBB.xlsx
+++ b/Tables/Table1_Performance_on_UKBB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E928D234-FFE8-4436-8F58-1CC2456AAA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E831A54-5285-4DE8-9677-D40FFDFA682D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Software</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,26 @@
   </si>
   <si>
     <t>Note: 66688 individuals and 369877 variants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P&lt;0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P&lt;5e-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UKBB Data: 66688 individuals and 369877 variants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time format: H:M:S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,11 +132,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,19 +543,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF39C987-7B64-4D8E-ADF7-1A2B5E4583C8}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,37 +565,43 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -578,8 +611,14 @@
       <c r="C7">
         <v>6.21</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>9.7978519999999993E-3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4.0500000000000002E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -589,22 +628,39 @@
       <c r="C8">
         <v>2.57</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="D8">
+        <v>1.0100659999999999E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.8600000000000002E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A12:C13"/>
+  <mergeCells count="3">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Table1_Performance_on_UKBB.xlsx
+++ b/Tables/Table1_Performance_on_UKBB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E831A54-5285-4DE8-9677-D40FFDFA682D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2286A0B-FE05-4436-9AEF-0850CE1A9ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Software</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,10 @@
   </si>
   <si>
     <t>Time format: H:M:S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plink</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,10 +139,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -520,16 +524,16 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -546,7 +550,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -614,7 +618,7 @@
       <c r="D7">
         <v>9.7978519999999993E-3</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>4.0500000000000002E-5</v>
       </c>
     </row>
@@ -631,8 +635,19 @@
       <c r="D8">
         <v>1.0100659999999999E-2</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>4.8600000000000002E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>8.4757909999999999E-3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.0500000000000002E-5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">

--- a/Tables/Table1_Performance_on_UKBB.xlsx
+++ b/Tables/Table1_Performance_on_UKBB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2286A0B-FE05-4436-9AEF-0850CE1A9ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B607CEA0-934F-4335-8F59-1D41A7A336D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,7 +550,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -643,6 +643,12 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
+      <c r="B9" s="1">
+        <v>6.4467592592592597E-3</v>
+      </c>
+      <c r="C9">
+        <v>4.1300000000000003E-2</v>
+      </c>
       <c r="D9">
         <v>8.4757909999999999E-3</v>
       </c>

--- a/Tables/Table1_Performance_on_UKBB.xlsx
+++ b/Tables/Table1_Performance_on_UKBB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B607CEA0-934F-4335-8F59-1D41A7A336D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72A0935-15C8-40A3-970E-69648C82D4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50" yWindow="1130" windowWidth="21550" windowHeight="12550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UKBB_Whole_Height" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Software</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,14 @@
   </si>
   <si>
     <t>Plink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.51E=05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,7 +558,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -580,13 +588,35 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <v>0.38056712962962963</v>
+      </c>
+      <c r="C2">
+        <v>41.78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>1.9675925925925928E-3</v>
+      </c>
+      <c r="C3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -597,13 +627,35 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <v>0.29173611111111114</v>
+      </c>
+      <c r="C5">
+        <v>35.67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1">
+        <v>9.600694444444445E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="D6">
+        <v>7.2943169999999998E-3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">

--- a/Tables/Table1_Performance_on_UKBB.xlsx
+++ b/Tables/Table1_Performance_on_UKBB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72A0935-15C8-40A3-970E-69648C82D4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EDA5A5-3675-4156-A100-8B4C6ADAAB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="1130" windowWidth="21550" windowHeight="12550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50" yWindow="760" windowWidth="21550" windowHeight="12550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UKBB_Whole_Height" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Software</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,10 @@
   </si>
   <si>
     <t>3.51E=05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +163,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -555,10 +559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF39C987-7B64-4D8E-ADF7-1A2B5E4583C8}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -567,7 +571,7 @@
     <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,8 +587,11 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -601,7 +608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -618,12 +625,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -640,7 +647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -656,8 +663,11 @@
       <c r="E6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>0.5018243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -674,7 +684,7 @@
         <v>4.0500000000000002E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -691,7 +701,7 @@
         <v>4.8600000000000002E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -707,22 +717,25 @@
       <c r="E9" s="2">
         <v>4.0500000000000002E-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>0.40696860000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>

--- a/Tables/Table1_Performance_on_UKBB.xlsx
+++ b/Tables/Table1_Performance_on_UKBB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EDA5A5-3675-4156-A100-8B4C6ADAAB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F16896C-7C3C-4396-9940-E5B58B81B8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="760" windowWidth="21550" windowHeight="12550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UKBB_Whole_Height" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -161,6 +161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,6 +630,21 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="6">
+        <v>2.4582986111111111</v>
+      </c>
+      <c r="C4">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="D4">
+        <v>8.4757909999999999E-3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4.055402E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.40688429999999998</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -683,6 +699,9 @@
       <c r="E7" s="2">
         <v>4.0500000000000002E-5</v>
       </c>
+      <c r="F7">
+        <v>0.4078813</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -699,6 +718,9 @@
       </c>
       <c r="E8" s="2">
         <v>4.8600000000000002E-5</v>
+      </c>
+      <c r="F8">
+        <v>0.4084527</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">

--- a/Tables/Table1_Performance_on_UKBB.xlsx
+++ b/Tables/Table1_Performance_on_UKBB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F16896C-7C3C-4396-9940-E5B58B81B8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6B0960-1E68-475B-B88D-5B520405116E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>Software</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -161,7 +162,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,16 +537,16 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -563,7 +563,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -608,6 +608,9 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -625,12 +628,15 @@
       <c r="E3" t="s">
         <v>17</v>
       </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>2.4582986111111111</v>
       </c>
       <c r="C4">
@@ -662,6 +668,9 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -744,25 +753,25 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Tables/Table1_Performance_on_UKBB.xlsx
+++ b/Tables/Table1_Performance_on_UKBB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6B0960-1E68-475B-B88D-5B520405116E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868F0450-E83A-4C31-A7DF-E845B67D833D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50" yWindow="760" windowWidth="21550" windowHeight="12550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UKBB_Whole_Height" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>Software</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,10 +97,6 @@
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.51E=05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -112,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +121,20 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -148,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -162,6 +172,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,7 +576,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -589,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -682,13 +695,13 @@
       <c r="C6">
         <v>0.51300000000000001</v>
       </c>
-      <c r="D6">
-        <v>7.2943169999999998E-3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="7">
+        <v>0.39061630000000003</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.1805735</v>
+      </c>
+      <c r="F6" s="7">
         <v>0.5018243</v>
       </c>
     </row>
@@ -742,13 +755,13 @@
       <c r="C9">
         <v>4.1300000000000003E-2</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
         <v>8.4757909999999999E-3</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="9">
         <v>4.0500000000000002E-5</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="8">
         <v>0.40696860000000001</v>
       </c>
     </row>

--- a/Tables/Table1_Performance_on_UKBB.xlsx
+++ b/Tables/Table1_Performance_on_UKBB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868F0450-E83A-4C31-A7DF-E845B67D833D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D8F250-DB66-4006-B2F4-E85D8A54DEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50" yWindow="760" windowWidth="21550" windowHeight="12550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +137,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -158,11 +164,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -172,9 +181,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,16 +559,16 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -576,7 +585,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -655,13 +664,13 @@
       <c r="C4">
         <v>4.6399999999999997</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>8.4757909999999999E-3</v>
       </c>
       <c r="E4" s="2">
         <v>4.055402E-5</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>0.40688429999999998</v>
       </c>
     </row>
@@ -695,14 +704,14 @@
       <c r="C6">
         <v>0.51300000000000001</v>
       </c>
-      <c r="D6" s="7">
-        <v>0.39061630000000003</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.1805735</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.5018243</v>
+      <c r="D6" s="11">
+        <v>1.0024949999999999E-2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3.5146820000000002E-5</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.40811229999999998</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -735,13 +744,13 @@
       <c r="C8">
         <v>2.57</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>1.0100659999999999E-2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="10">
         <v>4.8600000000000002E-5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>0.4084527</v>
       </c>
     </row>
@@ -755,36 +764,36 @@
       <c r="C9">
         <v>4.1300000000000003E-2</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="5">
         <v>8.4757909999999999E-3</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="12">
         <v>4.0500000000000002E-5</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="11">
         <v>0.40696860000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Tables/Table1_Performance_on_UKBB.xlsx
+++ b/Tables/Table1_Performance_on_UKBB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D8F250-DB66-4006-B2F4-E85D8A54DEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BE266A-B9DC-4402-9943-B84EA87FE901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50" yWindow="760" windowWidth="21550" windowHeight="12550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>Software</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,10 @@
   </si>
   <si>
     <t>RMSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolt-lmm-inf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,6 +176,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -181,9 +188,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,16 +563,16 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -585,7 +589,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -704,13 +708,13 @@
       <c r="C6">
         <v>0.51300000000000001</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>1.0024949999999999E-2</v>
       </c>
       <c r="E6" s="6">
         <v>3.5146820000000002E-5</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <v>0.40811229999999998</v>
       </c>
     </row>
@@ -736,64 +740,75 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>0.24305555555555555</v>
+        <v>8.9027777777777775E-2</v>
       </c>
       <c r="C8">
-        <v>2.57</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1.0100659999999999E-2</v>
-      </c>
-      <c r="E8" s="10">
-        <v>4.8600000000000002E-5</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.4084527</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="C9">
+        <v>2.57</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0100659999999999E-2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4.8600000000000002E-5</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.4084527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>6.4467592592592597E-3</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>4.1300000000000003E-2</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D10" s="5">
         <v>8.4757909999999999E-3</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E10" s="9">
         <v>4.0500000000000002E-5</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="8">
         <v>0.40696860000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Tables/Table1_Performance_on_UKBB.xlsx
+++ b/Tables/Table1_Performance_on_UKBB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BE266A-B9DC-4402-9943-B84EA87FE901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5B52AA-F834-4836-9D28-7A3538CBB51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50" yWindow="760" windowWidth="21550" windowHeight="12550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,7 +589,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -748,6 +748,15 @@
       <c r="C8">
         <v>6.21</v>
       </c>
+      <c r="D8">
+        <v>9.835702E-3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.0500000000000002E-5</v>
+      </c>
+      <c r="F8">
+        <v>0.40798390000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">

--- a/Tables/Table1_Performance_on_UKBB.xlsx
+++ b/Tables/Table1_Performance_on_UKBB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5B52AA-F834-4836-9D28-7A3538CBB51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EA612A-F5C0-4BDA-BF41-6EA3BFC188BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50" yWindow="760" windowWidth="21550" windowHeight="12550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>Software</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,10 @@
   </si>
   <si>
     <t>Bolt-lmm-inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolt-lmm-inf(with covariances)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,12 +593,12 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -796,6 +800,20 @@
       </c>
       <c r="F10" s="8">
         <v>0.40696860000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>1.0187170000000001E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4.0500000000000002E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.40832940000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">

--- a/Tables/Table1_Performance_on_UKBB.xlsx
+++ b/Tables/Table1_Performance_on_UKBB.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EA612A-F5C0-4BDA-BF41-6EA3BFC188BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C914123-0FED-4B71-8A9F-52044B7B3580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="760" windowWidth="21550" windowHeight="12550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UKBB_Whole_Height" sheetId="1" r:id="rId1"/>
     <sheet name="UKBB_Whole_Nongenetic" sheetId="2" r:id="rId2"/>
+    <sheet name="Power" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>Software</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +110,38 @@
   </si>
   <si>
     <t>Bolt-lmm-inf(with covariances)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regenie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolt-LMM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolt-LMM-inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastGWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P&lt;1E-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P&lt;5E-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note: In the columns P&lt;5E-5 and P&lt;1E-7, I counted SNPs that are both with P-value below the threshold and included in the specific 1000 SNPs that are causal SNPs to this simulated phenotype.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF39C987-7B64-4D8E-ADF7-1A2B5E4583C8}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -846,4 +879,196 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908D3623-BBEF-442B-ADCF-4073D9A6CB8C}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>0.125</v>
+      </c>
+      <c r="C4">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Tables/Table1_Performance_on_UKBB.xlsx
+++ b/Tables/Table1_Performance_on_UKBB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C914123-0FED-4B71-8A9F-52044B7B3580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C21F67-2E9D-43C3-A447-BC68C9E89E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>Software</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t>Note: In the columns P&lt;5E-5 and P&lt;1E-7, I counted SNPs that are both with P-value below the threshold and included in the specific 1000 SNPs that are causal SNPs to this simulated phenotype.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,10 +887,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908D3623-BBEF-442B-ADCF-4073D9A6CB8C}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -894,174 +898,210 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
+      <c r="B3" s="1">
+        <v>9.1597222222222219E-2</v>
+      </c>
+      <c r="C3">
+        <v>6.5</v>
+      </c>
       <c r="D3">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="E3">
+        <v>0.183</v>
+      </c>
+      <c r="F3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
-        <v>0.125</v>
+      <c r="B4" s="1">
+        <v>5.679398148148148E-2</v>
       </c>
       <c r="C4">
-        <v>5.1999999999999998E-2</v>
+        <v>6.42</v>
       </c>
       <c r="D4">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E4">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6" s="1">
+        <v>3.9236111111111112E-3</v>
+      </c>
+      <c r="C6">
+        <v>2.6</v>
+      </c>
       <c r="D6">
+        <v>0.125</v>
+      </c>
+      <c r="E6">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12">
+      <c r="D12">
         <v>0.49399999999999999</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>0.38200000000000001</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>0.9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>0.9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>

--- a/Tables/Table1_Performance_on_UKBB.xlsx
+++ b/Tables/Table1_Performance_on_UKBB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C21F67-2E9D-43C3-A447-BC68C9E89E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9F6DD7-CE25-4B6B-ACE1-F53379C34909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,7 +890,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1019,6 +1019,12 @@
       <c r="A10" t="s">
         <v>23</v>
       </c>
+      <c r="B10" s="1">
+        <v>8.5868055555555559E-2</v>
+      </c>
+      <c r="C10">
+        <v>6.42</v>
+      </c>
       <c r="F10">
         <v>0.5</v>
       </c>

--- a/Tables/Table1_Performance_on_UKBB.xlsx
+++ b/Tables/Table1_Performance_on_UKBB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9F6DD7-CE25-4B6B-ACE1-F53379C34909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7270523-3D2B-4591-9AF6-508AB097DEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,7 +890,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1011,6 +1011,12 @@
       <c r="A9" t="s">
         <v>22</v>
       </c>
+      <c r="B9" s="1">
+        <v>0.1794212962962963</v>
+      </c>
+      <c r="C9">
+        <v>6.5</v>
+      </c>
       <c r="F9">
         <v>0.5</v>
       </c>
@@ -1033,6 +1039,12 @@
       <c r="A11" t="s">
         <v>16</v>
       </c>
+      <c r="B11" s="1">
+        <v>0.25828703703703704</v>
+      </c>
+      <c r="C11">
+        <v>11.53</v>
+      </c>
       <c r="F11">
         <v>0.5</v>
       </c>
@@ -1041,6 +1053,12 @@
       <c r="A12" t="s">
         <v>3</v>
       </c>
+      <c r="B12" s="1">
+        <v>4.0972222222222226E-3</v>
+      </c>
+      <c r="C12">
+        <v>2.6</v>
+      </c>
       <c r="D12">
         <v>0.49399999999999999</v>
       </c>
@@ -1054,6 +1072,10 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13">
+        <v>86.34</v>
       </c>
       <c r="F13">
         <v>0.5</v>

--- a/Tables/Table1_Performance_on_UKBB.xlsx
+++ b/Tables/Table1_Performance_on_UKBB.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7270523-3D2B-4591-9AF6-508AB097DEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78B3A54-295B-4BBE-90E8-26250B3725C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50" yWindow="760" windowWidth="21550" windowHeight="12550" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UKBB_Whole_Height" sheetId="1" r:id="rId1"/>
     <sheet name="UKBB_Whole_Nongenetic" sheetId="2" r:id="rId2"/>
-    <sheet name="Power" sheetId="3" r:id="rId3"/>
+    <sheet name="UKBB_Whole_Nongenetic_P&lt;0.01" sheetId="4" r:id="rId3"/>
+    <sheet name="Power" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>Software</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +147,26 @@
   </si>
   <si>
     <t>Memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolt-lmm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.004079261</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.004062717</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.00405535</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -229,6 +250,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,7 +654,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -886,10 +910,160 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EADF93-0936-4BB0-9FC6-C522E181830E}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.08203125" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>3135</v>
+      </c>
+      <c r="C2">
+        <v>4.1311630000000002E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>3708</v>
+      </c>
+      <c r="C3">
+        <v>4.086658E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>3624</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>3768</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3736</v>
+      </c>
+      <c r="C6" s="14">
+        <v>4.0873089999999999E-3</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>3135</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A17:E17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908D3623-BBEF-442B-ADCF-4073D9A6CB8C}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
